--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd80-Ctla4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd80-Ctla4.xlsx
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6166306666666667</v>
+        <v>0.2791963333333333</v>
       </c>
       <c r="H2">
-        <v>1.849892</v>
+        <v>0.837589</v>
       </c>
       <c r="I2">
-        <v>0.01585912217154475</v>
+        <v>0.008912184157424861</v>
       </c>
       <c r="J2">
-        <v>0.01594598818140205</v>
+        <v>0.009090659364840875</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N2">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O2">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P2">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q2">
-        <v>0.2290532163528889</v>
+        <v>0.09584391328833333</v>
       </c>
       <c r="R2">
-        <v>2.061478947176</v>
+        <v>0.862595219595</v>
       </c>
       <c r="S2">
-        <v>0.01032811475682092</v>
+        <v>0.008794053990647387</v>
       </c>
       <c r="T2">
-        <v>0.01038468548681272</v>
+        <v>0.008970163525895358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6166306666666667</v>
+        <v>0.2791963333333333</v>
       </c>
       <c r="H3">
-        <v>1.849892</v>
+        <v>0.837589</v>
       </c>
       <c r="I3">
-        <v>0.01585912217154475</v>
+        <v>0.008912184157424861</v>
       </c>
       <c r="J3">
-        <v>0.01594598818140205</v>
+        <v>0.009090659364840875</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N3">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O3">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P3">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q3">
-        <v>0.1226646941715555</v>
+        <v>0.001287467358444445</v>
       </c>
       <c r="R3">
-        <v>1.103982247544</v>
+        <v>0.011587206226</v>
       </c>
       <c r="S3">
-        <v>0.005531007414723822</v>
+        <v>0.0001181301667774744</v>
       </c>
       <c r="T3">
-        <v>0.00556130269458933</v>
+        <v>0.000120495838945518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.510701000000001</v>
+        <v>2.510701</v>
       </c>
       <c r="H4">
-        <v>7.532103000000001</v>
+        <v>7.532103</v>
       </c>
       <c r="I4">
-        <v>0.06457271110186905</v>
+        <v>0.08014370894160773</v>
       </c>
       <c r="J4">
-        <v>0.06492639863251636</v>
+        <v>0.0817486651256118</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N4">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O4">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P4">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q4">
-        <v>0.9326233196593336</v>
+        <v>0.861885992785</v>
       </c>
       <c r="R4">
-        <v>8.393609876934002</v>
+        <v>7.756973935065</v>
       </c>
       <c r="S4">
-        <v>0.04205241394859547</v>
+        <v>0.07908141158147632</v>
       </c>
       <c r="T4">
-        <v>0.04228274986284528</v>
+        <v>0.08066509422149409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.510701000000001</v>
+        <v>2.510701</v>
       </c>
       <c r="H5">
-        <v>7.532103000000001</v>
+        <v>7.532103</v>
       </c>
       <c r="I5">
-        <v>0.06457271110186905</v>
+        <v>0.08014370894160773</v>
       </c>
       <c r="J5">
-        <v>0.06492639863251636</v>
+        <v>0.0817486651256118</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N5">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O5">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P5">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q5">
-        <v>0.4994470547273334</v>
+        <v>0.01157767921133333</v>
       </c>
       <c r="R5">
-        <v>4.495023492546</v>
+        <v>0.104199112902</v>
       </c>
       <c r="S5">
-        <v>0.02252029715327357</v>
+        <v>0.00106229736013142</v>
       </c>
       <c r="T5">
-        <v>0.02264364876967108</v>
+        <v>0.001083570904117715</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.23029433333333</v>
+        <v>16.644438</v>
       </c>
       <c r="H6">
-        <v>36.690883</v>
+        <v>49.933314</v>
       </c>
       <c r="I6">
-        <v>0.314550901392543</v>
+        <v>0.5313046016107197</v>
       </c>
       <c r="J6">
-        <v>0.3162738077051014</v>
+        <v>0.5419444960853593</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N6">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O6">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P6">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q6">
-        <v>4.543056979530445</v>
+        <v>5.71378589883</v>
       </c>
       <c r="R6">
-        <v>40.887512815774</v>
+        <v>51.42407308947</v>
       </c>
       <c r="S6">
-        <v>0.2048485263751019</v>
+        <v>0.5242622088493869</v>
       </c>
       <c r="T6">
-        <v>0.2059705540585308</v>
+        <v>0.5347610725187175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.23029433333333</v>
+        <v>16.644438</v>
       </c>
       <c r="H7">
-        <v>36.690883</v>
+        <v>49.933314</v>
       </c>
       <c r="I7">
-        <v>0.314550901392543</v>
+        <v>0.5313046016107197</v>
       </c>
       <c r="J7">
-        <v>0.3162738077051014</v>
+        <v>0.5419444960853593</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N7">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O7">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P7">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q7">
-        <v>2.432939837611777</v>
+        <v>0.076753051764</v>
       </c>
       <c r="R7">
-        <v>21.896458538506</v>
+        <v>0.6907774658760001</v>
       </c>
       <c r="S7">
-        <v>0.1097023750174412</v>
+        <v>0.007042392761332826</v>
       </c>
       <c r="T7">
-        <v>0.1103032536465706</v>
+        <v>0.007183423566641847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6354270000000001</v>
+        <v>1.84514</v>
       </c>
       <c r="H8">
-        <v>1.270854</v>
+        <v>3.69028</v>
       </c>
       <c r="I8">
-        <v>0.01634254500927324</v>
+        <v>0.0588984363795283</v>
       </c>
       <c r="J8">
-        <v>0.01095470593109626</v>
+        <v>0.04005195679609568</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N8">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O8">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P8">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q8">
-        <v>0.2360352898020001</v>
+        <v>0.6334088849</v>
       </c>
       <c r="R8">
-        <v>1.416211738812</v>
+        <v>3.8004533094</v>
       </c>
       <c r="S8">
-        <v>0.01064293965634067</v>
+        <v>0.05811774311853351</v>
       </c>
       <c r="T8">
-        <v>0.007134156528952986</v>
+        <v>0.0395210718578457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6354270000000001</v>
+        <v>1.84514</v>
       </c>
       <c r="H9">
-        <v>1.270854</v>
+        <v>3.69028</v>
       </c>
       <c r="I9">
-        <v>0.01634254500927324</v>
+        <v>0.0588984363795283</v>
       </c>
       <c r="J9">
-        <v>0.01095470593109626</v>
+        <v>0.04005195679609568</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N9">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O9">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P9">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q9">
-        <v>0.126403798638</v>
+        <v>0.008508555586666668</v>
       </c>
       <c r="R9">
-        <v>0.758422791828</v>
+        <v>0.05105133352000001</v>
       </c>
       <c r="S9">
-        <v>0.005699605352932574</v>
+        <v>0.000780693260994793</v>
       </c>
       <c r="T9">
-        <v>0.003820549402143276</v>
+        <v>0.0005308849382499842</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.88871233333333</v>
+        <v>10.04801166666667</v>
       </c>
       <c r="H10">
-        <v>68.66613699999999</v>
+        <v>30.144035</v>
       </c>
       <c r="I10">
-        <v>0.5886747203247699</v>
+        <v>0.3207410689107194</v>
       </c>
       <c r="J10">
-        <v>0.591899099549884</v>
+        <v>0.3271642226280922</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N10">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O10">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P10">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q10">
-        <v>8.502225824198444</v>
+        <v>3.449331684991667</v>
       </c>
       <c r="R10">
-        <v>76.520032417786</v>
+        <v>31.043985164925</v>
       </c>
       <c r="S10">
-        <v>0.3833692684997758</v>
+        <v>0.3164896760654265</v>
       </c>
       <c r="T10">
-        <v>0.3854691172994931</v>
+        <v>0.322827691481518</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.88871233333333</v>
+        <v>10.04801166666667</v>
       </c>
       <c r="H11">
-        <v>68.66613699999999</v>
+        <v>30.144035</v>
       </c>
       <c r="I11">
-        <v>0.5886747203247699</v>
+        <v>0.3207410689107194</v>
       </c>
       <c r="J11">
-        <v>0.591899099549884</v>
+        <v>0.3271642226280922</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N11">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O11">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P11">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q11">
-        <v>4.553190507903777</v>
+        <v>0.04633473113222223</v>
       </c>
       <c r="R11">
-        <v>40.97871457113399</v>
+        <v>0.41701258019</v>
       </c>
       <c r="S11">
-        <v>0.205305451824994</v>
+        <v>0.004251392845292891</v>
       </c>
       <c r="T11">
-        <v>0.2064299822503909</v>
+        <v>0.004336531146574342</v>
       </c>
     </row>
   </sheetData>
